--- a/fromLabView.xlsx
+++ b/fromLabView.xlsx
@@ -11,8 +11,24 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="fromLabView" localSheetId="0">Лист1!$A$1:$B$100</definedName>
+  </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
+</file>
+
+<file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <connection id="1" name="fromLabView" type="6" refreshedVersion="3" background="1" saveData="1">
+    <textPr codePage="866" sourceFile="C:\Users\acer\Desktop\Практика Сафронов\Задание 3\fromLabView.txt" decimal="," thousands=" " tab="0" delimiter="~">
+      <textFields count="2">
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+</connections>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -71,101 +87,641 @@
           <c:order val="0"/>
           <c:xVal>
             <c:numRef>
-              <c:f>Лист1!$A$1:$A$10</c:f>
+              <c:f>Лист1!$A$1:$A$100</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="11">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="21">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.2999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.9</c:v>
+                </c:pt>
+                <c:pt idx="30">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="31">
+                  <c:v>3.1</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3.7</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3.9</c:v>
+                </c:pt>
+                <c:pt idx="40">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="41">
+                  <c:v>4.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>4.3</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>4.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>4.5999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>4.7</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>4.9000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="50">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="51">
+                  <c:v>5.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>5.2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>5.3</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>5.4</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>5.6</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>5.7</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>5.8</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>5.9</c:v>
+                </c:pt>
+                <c:pt idx="60">
                   <c:v>6</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="61">
+                  <c:v>6.1</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>6.2</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>6.3</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>6.4</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>6.6</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>6.7</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>6.8</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>6.9</c:v>
+                </c:pt>
+                <c:pt idx="70">
                   <c:v>7</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="71">
+                  <c:v>7.1</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>7.2</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>7.3</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>7.6</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>7.7</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>7.8</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>7.9</c:v>
+                </c:pt>
+                <c:pt idx="80">
                   <c:v>8</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="81">
+                  <c:v>8.1</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>8.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>8.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>8.4</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>8.6</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>8.6999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>8.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>8.9</c:v>
+                </c:pt>
+                <c:pt idx="90">
                   <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>9.1</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>9.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>9.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>9.4</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>9.6</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>9.6999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>9.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>9.9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Лист1!$B$1:$B$10</c:f>
+              <c:f>Лист1!$B$1:$B$100</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.32100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.35099999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.21199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.498</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.73699999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.88</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>-0.9</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="11">
+                  <c:v>-0.79800000000000004</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-0.60599999999999998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-0.374</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-0.16400000000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-0.03</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-5.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-9.7000000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-0.28100000000000003</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-0.51100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>-0.72699999999999998</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="21">
+                  <c:v>-0.871</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-0.90400000000000003</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-0.81100000000000005</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-0.60599999999999998</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-0.33200000000000002</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-4.8000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.188</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.32800000000000001</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.34799999999999998</c:v>
+                </c:pt>
+                <c:pt idx="30">
                   <c:v>0.255</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="31">
+                  <c:v>8.2000000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-0.115</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-0.27700000000000002</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-0.35299999999999998</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-0.312</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-0.154</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>9.4E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.38100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.64700000000000002</c:v>
+                </c:pt>
+                <c:pt idx="40">
                   <c:v>0.83499999999999996</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="41">
+                  <c:v>0.90800000000000003</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.85399999999999998</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.69399999999999995</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.47099999999999997</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.245</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>7.3999999999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>4.4999999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.19600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="50">
                   <c:v>0.41299999999999998</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="51">
+                  <c:v>0.64200000000000002</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.82299999999999995</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.90600000000000003</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.86499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.70199999999999996</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.45100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.16300000000000001</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>-0.1</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>-0.28399999999999997</c:v>
+                </c:pt>
+                <c:pt idx="60">
                   <c:v>-0.35399999999999998</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="61">
+                  <c:v>-0.30499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>-0.16</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>3.4000000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.217</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.33400000000000002</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.34399999999999997</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.23300000000000001</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1.7000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>-0.26</c:v>
+                </c:pt>
+                <c:pt idx="70">
                   <c:v>-0.54300000000000004</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="71">
+                  <c:v>-0.76900000000000002</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>-0.89300000000000002</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>-0.89100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>-0.77100000000000002</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>-0.56799999999999995</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>-0.33600000000000002</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>-0.13500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>-1.7000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>-1.2999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="80">
                   <c:v>-0.122</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="81">
+                  <c:v>-0.318</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>-0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>-0.75700000000000001</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>-0.88600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>-0.89700000000000002</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>-0.78300000000000003</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>-0.56299999999999994</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>-0.28399999999999997</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>-3.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="90">
                   <c:v>0.219</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.33900000000000002</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.23</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>4.9000000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>-0.14599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>-0.29699999999999999</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>-0.35499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>-0.29399999999999998</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>-0.11799999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="91570560"/>
-        <c:axId val="111385216"/>
+        <c:axId val="127095936"/>
+        <c:axId val="127097472"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="91570560"/>
+        <c:axId val="127095936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="111385216"/>
+        <c:crossAx val="127097472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="111385216"/>
+        <c:axId val="127097472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -173,7 +729,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="91570560"/>
+        <c:crossAx val="127095936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -186,7 +742,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -225,6 +781,10 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="fromLabView" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -512,13 +1072,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1">
@@ -530,74 +1094,794 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="B2">
-        <v>-0.9</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3">
-        <v>2</v>
+        <v>0.2</v>
       </c>
       <c r="B3">
-        <v>-0.72699999999999998</v>
+        <v>0.32100000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4">
-        <v>3</v>
+        <v>0.3</v>
       </c>
       <c r="B4">
-        <v>0.255</v>
+        <v>0.35099999999999998</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5">
-        <v>4</v>
+        <v>0.4</v>
       </c>
       <c r="B5">
-        <v>0.83499999999999996</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6">
-        <v>5</v>
+        <v>0.5</v>
       </c>
       <c r="B6">
-        <v>0.41299999999999998</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7">
-        <v>6</v>
+        <v>0.6</v>
       </c>
       <c r="B7">
-        <v>-0.35399999999999998</v>
+        <v>-0.21199999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8">
-        <v>7</v>
+        <v>0.7</v>
       </c>
       <c r="B8">
-        <v>-0.54300000000000004</v>
+        <v>-0.498</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9">
-        <v>8</v>
+        <v>0.8</v>
       </c>
       <c r="B9">
-        <v>-0.122</v>
+        <v>-0.73699999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10">
+        <v>0.9</v>
+      </c>
+      <c r="B10">
+        <v>-0.88</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11">
+        <v>-0.9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B12">
+        <v>-0.79800000000000004</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13">
+        <v>1.2</v>
+      </c>
+      <c r="B13">
+        <v>-0.60599999999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14">
+        <v>1.3</v>
+      </c>
+      <c r="B14">
+        <v>-0.374</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15">
+        <v>1.4</v>
+      </c>
+      <c r="B15">
+        <v>-0.16400000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16">
+        <v>1.5</v>
+      </c>
+      <c r="B16">
+        <v>-0.03</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17">
+        <v>1.6</v>
+      </c>
+      <c r="B17">
+        <v>-5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18">
+        <v>1.7</v>
+      </c>
+      <c r="B18">
+        <v>-9.7000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19">
+        <v>1.8</v>
+      </c>
+      <c r="B19">
+        <v>-0.28100000000000003</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20">
+        <v>1.9</v>
+      </c>
+      <c r="B20">
+        <v>-0.51100000000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21">
+        <v>2</v>
+      </c>
+      <c r="B21">
+        <v>-0.72699999999999998</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22">
+        <v>2.1</v>
+      </c>
+      <c r="B22">
+        <v>-0.871</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="B23">
+        <v>-0.90400000000000003</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="B24">
+        <v>-0.81100000000000005</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25">
+        <v>2.4</v>
+      </c>
+      <c r="B25">
+        <v>-0.60599999999999998</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26">
+        <v>2.5</v>
+      </c>
+      <c r="B26">
+        <v>-0.33200000000000002</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27">
+        <v>2.6</v>
+      </c>
+      <c r="B27">
+        <v>-4.8000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28">
+        <v>2.7</v>
+      </c>
+      <c r="B28">
+        <v>0.188</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29">
+        <v>2.8</v>
+      </c>
+      <c r="B29">
+        <v>0.32800000000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30">
+        <v>2.9</v>
+      </c>
+      <c r="B30">
+        <v>0.34799999999999998</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31">
+        <v>3</v>
+      </c>
+      <c r="B31">
+        <v>0.255</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32">
+        <v>3.1</v>
+      </c>
+      <c r="B32">
+        <v>8.2000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33">
+        <v>3.2</v>
+      </c>
+      <c r="B33">
+        <v>-0.115</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34">
+        <v>3.3</v>
+      </c>
+      <c r="B34">
+        <v>-0.27700000000000002</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35">
+        <v>3.4</v>
+      </c>
+      <c r="B35">
+        <v>-0.35299999999999998</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36">
+        <v>3.5</v>
+      </c>
+      <c r="B36">
+        <v>-0.312</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37">
+        <v>3.6</v>
+      </c>
+      <c r="B37">
+        <v>-0.154</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38">
+        <v>3.7</v>
+      </c>
+      <c r="B38">
+        <v>9.4E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39">
+        <v>3.8</v>
+      </c>
+      <c r="B39">
+        <v>0.38100000000000001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40">
+        <v>3.9</v>
+      </c>
+      <c r="B40">
+        <v>0.64700000000000002</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41">
+        <v>4</v>
+      </c>
+      <c r="B41">
+        <v>0.83499999999999996</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="B42">
+        <v>0.90800000000000003</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43">
+        <v>4.2</v>
+      </c>
+      <c r="B43">
+        <v>0.85399999999999998</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44">
+        <v>4.3</v>
+      </c>
+      <c r="B44">
+        <v>0.69399999999999995</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="B45">
+        <v>0.47099999999999997</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46">
+        <v>4.5</v>
+      </c>
+      <c r="B46">
+        <v>0.245</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="B47">
+        <v>7.3999999999999996E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48">
+        <v>4.7</v>
+      </c>
+      <c r="B48">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49">
+        <v>4.8</v>
+      </c>
+      <c r="B49">
+        <v>4.4999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="B50">
+        <v>0.19600000000000001</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51">
+        <v>5</v>
+      </c>
+      <c r="B51">
+        <v>0.41299999999999998</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="B52">
+        <v>0.64200000000000002</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53">
+        <v>5.2</v>
+      </c>
+      <c r="B53">
+        <v>0.82299999999999995</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54">
+        <v>5.3</v>
+      </c>
+      <c r="B54">
+        <v>0.90600000000000003</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55">
+        <v>5.4</v>
+      </c>
+      <c r="B55">
+        <v>0.86499999999999999</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56">
+        <v>5.5</v>
+      </c>
+      <c r="B56">
+        <v>0.70199999999999996</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57">
+        <v>5.6</v>
+      </c>
+      <c r="B57">
+        <v>0.45100000000000001</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58">
+        <v>5.7</v>
+      </c>
+      <c r="B58">
+        <v>0.16300000000000001</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59">
+        <v>5.8</v>
+      </c>
+      <c r="B59">
+        <v>-0.1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60">
+        <v>5.9</v>
+      </c>
+      <c r="B60">
+        <v>-0.28399999999999997</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61">
+        <v>6</v>
+      </c>
+      <c r="B61">
+        <v>-0.35399999999999998</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62">
+        <v>6.1</v>
+      </c>
+      <c r="B62">
+        <v>-0.30499999999999999</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63">
+        <v>6.2</v>
+      </c>
+      <c r="B63">
+        <v>-0.16</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64">
+        <v>6.3</v>
+      </c>
+      <c r="B64">
+        <v>3.4000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65">
+        <v>6.4</v>
+      </c>
+      <c r="B65">
+        <v>0.217</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66">
+        <v>6.5</v>
+      </c>
+      <c r="B66">
+        <v>0.33400000000000002</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67">
+        <v>6.6</v>
+      </c>
+      <c r="B67">
+        <v>0.34399999999999997</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68">
+        <v>6.7</v>
+      </c>
+      <c r="B68">
+        <v>0.23300000000000001</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69">
+        <v>6.8</v>
+      </c>
+      <c r="B69">
+        <v>1.7000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70">
+        <v>6.9</v>
+      </c>
+      <c r="B70">
+        <v>-0.26</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71">
+        <v>7</v>
+      </c>
+      <c r="B71">
+        <v>-0.54300000000000004</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72">
+        <v>7.1</v>
+      </c>
+      <c r="B72">
+        <v>-0.76900000000000002</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73">
+        <v>7.2</v>
+      </c>
+      <c r="B73">
+        <v>-0.89300000000000002</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74">
+        <v>7.3</v>
+      </c>
+      <c r="B74">
+        <v>-0.89100000000000001</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75">
+        <v>7.4</v>
+      </c>
+      <c r="B75">
+        <v>-0.77100000000000002</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76">
+        <v>7.5</v>
+      </c>
+      <c r="B76">
+        <v>-0.56799999999999995</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77">
+        <v>7.6</v>
+      </c>
+      <c r="B77">
+        <v>-0.33600000000000002</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78">
+        <v>7.7</v>
+      </c>
+      <c r="B78">
+        <v>-0.13500000000000001</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79">
+        <v>7.8</v>
+      </c>
+      <c r="B79">
+        <v>-1.7000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80">
+        <v>7.9</v>
+      </c>
+      <c r="B80">
+        <v>-1.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81">
+        <v>8</v>
+      </c>
+      <c r="B81">
+        <v>-0.122</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82">
+        <v>8.1</v>
+      </c>
+      <c r="B82">
+        <v>-0.318</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="B83">
+        <v>-0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="B84">
+        <v>-0.75700000000000001</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85">
+        <v>8.4</v>
+      </c>
+      <c r="B85">
+        <v>-0.88600000000000001</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86">
+        <v>8.5</v>
+      </c>
+      <c r="B86">
+        <v>-0.89700000000000002</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87">
+        <v>8.6</v>
+      </c>
+      <c r="B87">
+        <v>-0.78300000000000003</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="B88">
+        <v>-0.56299999999999994</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="B89">
+        <v>-0.28399999999999997</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90">
+        <v>8.9</v>
+      </c>
+      <c r="B90">
+        <v>-3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91">
         <v>9</v>
       </c>
-      <c r="B10">
+      <c r="B91">
         <v>0.219</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92">
+        <v>9.1</v>
+      </c>
+      <c r="B92">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="B93">
+        <v>0.33900000000000002</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="B94">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95">
+        <v>9.4</v>
+      </c>
+      <c r="B95">
+        <v>4.9000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96">
+        <v>9.5</v>
+      </c>
+      <c r="B96">
+        <v>-0.14599999999999999</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97">
+        <v>9.6</v>
+      </c>
+      <c r="B97">
+        <v>-0.29699999999999999</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="B98">
+        <v>-0.35499999999999998</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="B99">
+        <v>-0.29399999999999998</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100">
+        <v>9.9</v>
+      </c>
+      <c r="B100">
+        <v>-0.11799999999999999</v>
       </c>
     </row>
   </sheetData>
